--- a/data/dividends_info_20260223.xlsx
+++ b/data/dividends_info_20260223.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>55.34999847412109</v>
+        <v>54.59999847412109</v>
       </c>
       <c r="I2" t="n">
-        <v>1.264679348324255</v>
+        <v>1.282051317880129</v>
       </c>
       <c r="J2" t="n">
         <v>357</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>87.69999694824219</v>
+        <v>87.48000335693359</v>
       </c>
       <c r="I3" t="n">
-        <v>1.185860930660894</v>
+        <v>1.188843118531466</v>
       </c>
       <c r="J3" t="n">
         <v>84</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>55.34999847412109</v>
+        <v>54.59999847412109</v>
       </c>
       <c r="I4" t="n">
-        <v>3.974706523304803</v>
+        <v>4.029304141908979</v>
       </c>
       <c r="J4" t="n">
         <v>84</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.97500038146973</v>
+        <v>19.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.954943604070526</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>84</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.870999813079834</v>
+        <v>5.86299991607666</v>
       </c>
       <c r="I6" t="n">
-        <v>3.236246057727755</v>
+        <v>3.240661823634174</v>
       </c>
       <c r="J6" t="n">
         <v>84</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>57</v>
+        <v>58.06000137329102</v>
       </c>
       <c r="I7" t="n">
-        <v>2.456140350877193</v>
+        <v>2.411298599527821</v>
       </c>
       <c r="J7" t="n">
         <v>84</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>22.13999938964844</v>
+        <v>22.60000038146973</v>
       </c>
       <c r="I8" t="n">
-        <v>2.710027174980547</v>
+        <v>2.654867211825156</v>
       </c>
       <c r="J8" t="n">
         <v>84</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9.109999656677246</v>
+        <v>9.060000419616699</v>
       </c>
       <c r="I9" t="n">
-        <v>5.60373237364312</v>
+        <v>5.634657575673685</v>
       </c>
       <c r="J9" t="n">
         <v>70</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.214999914169312</v>
+        <v>2.255000114440918</v>
       </c>
       <c r="I11" t="n">
-        <v>2.93453735976224</v>
+        <v>2.882483224002649</v>
       </c>
       <c r="J11" t="n">
         <v>63</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.78000020980835</v>
+        <v>6.820000171661377</v>
       </c>
       <c r="I12" t="n">
-        <v>7.374631040227261</v>
+        <v>7.331378114587323</v>
       </c>
       <c r="J12" t="n">
         <v>56</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12.89000034332275</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>4.189293914795972</v>
+        <v>4.153846153846154</v>
       </c>
       <c r="J13" t="n">
         <v>56</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>309.2000122070312</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="I14" t="n">
-        <v>1.16914613754268</v>
+        <v>1.189536055479934</v>
       </c>
       <c r="J14" t="n">
         <v>56</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>19.47999954223633</v>
+        <v>19.125</v>
       </c>
       <c r="I16" t="n">
-        <v>3.234086318298112</v>
+        <v>3.294117647058824</v>
       </c>
       <c r="J16" t="n">
         <v>56</v>
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>28.55500030517578</v>
+        <v>28.5049991607666</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3151812258383583</v>
+        <v>0.3157340910357689</v>
       </c>
       <c r="J17" t="n">
         <v>28</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>55.34999847412109</v>
+        <v>54.59999847412109</v>
       </c>
       <c r="I18" t="n">
-        <v>1.174345109158237</v>
+        <v>1.190476223745834</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.700000047683716</v>
+        <v>1.679999947547913</v>
       </c>
       <c r="I19" t="n">
-        <v>3.529411665708551</v>
+        <v>3.571428682933862</v>
       </c>
       <c r="J19" t="n">
         <v>-14</v>
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.1825000047683716</v>
+        <v>0.1809999942779541</v>
       </c>
       <c r="I20" t="n">
-        <v>32.87671146976232</v>
+        <v>33.14917231868003</v>
       </c>
       <c r="J20" t="n">
         <v>-21</v>
@@ -1969,7 +1969,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PROMOTICA S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2054,7 +2054,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2071,7 +2071,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Energy Time S.p.A.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Energy Time S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2098,14 +2098,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2115,14 +2115,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>Bellini Nautica S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2139,7 +2139,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bellini Nautica S.p.A.</t>
+          <t>PROMOTICA S.p.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2166,14 +2166,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2183,14 +2183,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,14 +2200,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2217,14 +2217,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2343,7 +2343,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2360,7 +2360,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2377,7 +2377,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2411,7 +2411,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2523,14 +2523,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2608,14 +2608,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2659,14 +2659,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2676,14 +2676,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2693,14 +2693,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2717,7 +2717,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2727,14 +2727,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2778,14 +2778,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2795,14 +2795,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2812,14 +2812,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2846,14 +2846,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2870,7 +2870,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2887,7 +2887,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BEEWIZE</t>
+          <t>BANCA SISTEMA S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2904,7 +2904,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.p.A.</t>
+          <t>BEEWIZE</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3023,7 +3023,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3057,7 +3057,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3074,7 +3074,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3091,7 +3091,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3125,7 +3125,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3159,7 +3159,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3176,7 +3176,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3186,14 +3186,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3203,14 +3203,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3227,7 +3227,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3237,14 +3237,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3254,14 +3254,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3278,7 +3278,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3295,7 +3295,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3329,7 +3329,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3339,14 +3339,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3390,14 +3390,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3414,7 +3414,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3431,7 +3431,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3441,14 +3441,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3458,14 +3458,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3475,14 +3475,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3499,7 +3499,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3509,14 +3509,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3526,14 +3526,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3550,7 +3550,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3567,7 +3567,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3577,14 +3577,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3594,14 +3594,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3645,14 +3645,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3669,7 +3669,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3679,14 +3679,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3703,7 +3703,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3720,7 +3720,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3747,14 +3747,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3771,7 +3771,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3805,7 +3805,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3822,7 +3822,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3832,14 +3832,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3866,14 +3866,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3890,7 +3890,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3907,7 +3907,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3917,14 +3917,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3951,14 +3951,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3975,7 +3975,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4026,7 +4026,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4036,14 +4036,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4053,14 +4053,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4094,7 +4094,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4111,7 +4111,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4121,14 +4121,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4145,7 +4145,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4179,7 +4179,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4189,14 +4189,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4206,14 +4206,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4223,14 +4223,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4247,7 +4247,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4298,7 +4298,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4315,7 +4315,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4332,7 +4332,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4349,7 +4349,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4366,7 +4366,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4383,7 +4383,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4393,14 +4393,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4417,7 +4417,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4434,7 +4434,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4444,14 +4444,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4485,7 +4485,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4502,7 +4502,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4519,7 +4519,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4536,7 +4536,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4546,14 +4546,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4570,7 +4570,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4580,14 +4580,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4621,7 +4621,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4655,7 +4655,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4665,14 +4665,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4682,14 +4682,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4699,14 +4699,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4716,14 +4716,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4740,7 +4740,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4750,14 +4750,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4774,7 +4774,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4791,7 +4791,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4801,14 +4801,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4859,7 +4859,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4893,7 +4893,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4961,7 +4961,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4978,7 +4978,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4988,14 +4988,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5012,7 +5012,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5029,7 +5029,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5039,14 +5039,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5056,14 +5056,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5073,14 +5073,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5090,14 +5090,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5107,14 +5107,14 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5131,7 +5131,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5158,14 +5158,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>DHH S.p.A.</t>
+          <t>OPS Italia S.p.A.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5199,7 +5199,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5233,7 +5233,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>OPS Italia S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5243,14 +5243,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5267,7 +5267,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Telesia S.p.A.</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5301,7 +5301,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>DHH S.p.A.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5311,14 +5311,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>IMMSI S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5335,7 +5335,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>OMER S.p.A.</t>
+          <t>IMMSI S.p.A.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5352,7 +5352,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>POWERSOFT S.p.A.</t>
+          <t>IREN S.p.A.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5369,7 +5369,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Nusco S.p.A.</t>
+          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5403,7 +5403,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>IREN S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5437,7 +5437,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ZEST S.p.A.</t>
+          <t>POWERSOFT S.p.A.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5454,7 +5454,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5464,14 +5464,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SECO S.p.A.</t>
+          <t>Banca Profilo S.p.A.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5488,7 +5488,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>FOPE S.p.A.</t>
+          <t>Friends S.p.A.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5505,7 +5505,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Banca Profilo S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5522,7 +5522,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>EuroGroup Laminations S.p.A.</t>
+          <t>FOPE S.p.A.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5539,7 +5539,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>EXPERT.AI S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ENAV S.p.A.</t>
+          <t>SECO S.p.A.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5573,7 +5573,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>CLASS EDITORI S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>ZEST S.p.A.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5607,7 +5607,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>F.I.L.A. S.p.A.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5617,14 +5617,14 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>EuroGroup Laminations S.p.A.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5641,7 +5641,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>EXPERT.AI S.p.A.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5651,14 +5651,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>ENAV S.p.A.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5675,7 +5675,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>CLASS EDITORI S.p.A.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>F.I.L.A. S.p.A.</t>
+          <t>OMER S.p.A.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5709,7 +5709,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
+          <t>Nusco S.p.A.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5743,7 +5743,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>RCS MediaGroup S.p.A.</t>
+          <t>Egomnia S.p.A.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5760,7 +5760,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Softlab S.p.A.</t>
+          <t>Growens S.p.A.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5777,7 +5777,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5794,7 +5794,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>RCS MediaGroup S.p.A.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Egomnia S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5838,14 +5838,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Porto Aviation Group S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5862,7 +5862,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>Softlab S.p.A.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5879,7 +5879,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Growens S.p.A.</t>
+          <t>Allcore S.p.A.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Franchi Umberto Marmi S.p.A.</t>
+          <t>Braga Moro Sistemi di Energia S.p.A.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5913,7 +5913,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Allcore S.p.A.</t>
+          <t>CAIRO COMMUNICATION S.p.A.</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5930,7 +5930,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Braga Moro Sistemi di Energia S.p.A.</t>
+          <t>Cloudia Research S.p.A.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5947,7 +5947,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CAIRO COMMUNICATION S.p.A.</t>
+          <t>DOTSTAY S.p.A.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5964,7 +5964,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Cloudia Research S.p.A.</t>
+          <t>Franchi Umberto Marmi S.p.A.</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5981,7 +5981,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>DOTSTAY S.p.A.</t>
+          <t>Porto Aviation Group S.p.A.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5998,7 +5998,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>rino petino S.p.A.</t>
+          <t>Somec S.p.A.</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6015,7 +6015,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ATON Green Storage S.p.A.</t>
+          <t>eVISO S.p.A.</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6025,14 +6025,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>PININFARINA S.p.A.</t>
+          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6049,7 +6049,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PLC S.p.A.</t>
+          <t>BolognaFiere S.p.A.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6083,7 +6083,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>Confinvest F.L. S.p.A.</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Somec S.p.A.</t>
+          <t>DANIELI &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6110,14 +6110,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>ELICA S.p.A.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6127,14 +6127,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>ELSA Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6151,7 +6151,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
+          <t>ESI S.p.A.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6168,7 +6168,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>eVISO S.p.A.</t>
+          <t>rino petino S.p.A.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6178,14 +6178,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Longino &amp; Cardenal S.p.A.</t>
+          <t>FINCANTIERI S.p.A.</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6219,7 +6219,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>G.M. Leather S.p.A.</t>
+          <t>Longino &amp; Cardenal S.p.A.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6236,7 +6236,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>FINCANTIERI S.p.A.</t>
+          <t>PININFARINA S.p.A.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6253,7 +6253,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ESI S.p.A.</t>
+          <t>PLC S.p.A.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6270,7 +6270,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ELSA Solutions S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6287,7 +6287,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ELICA S.p.A.</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6297,14 +6297,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DANIELI &amp; C. S.p.A.</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6314,14 +6314,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Confinvest F.L. S.p.A.</t>
+          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6338,7 +6338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BolognaFiere S.p.A.</t>
+          <t>G.M. Leather S.p.A.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6355,7 +6355,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
+          <t>ATON Green Storage S.p.A.</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6380,151 +6380,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ferrari N.V.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NL0011585146</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-04-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-05-05</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>309.2000122070312</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.615</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1.16914613754268</v>
-      </c>
-      <c r="I2" t="n">
-        <v>56</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Moncler S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IT0004965148</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-05-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2026-05-20</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>57</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2.456140350877193</v>
-      </c>
-      <c r="I3" t="n">
-        <v>84</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6535,491 +6398,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ATON Green Storage S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BolognaFiere S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CREACTIVES GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Confinvest F.L. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DANIELI &amp; C. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELICA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELSA Solutions S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ESI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Energy Time S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FINCANTIERI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>G.M. Leather S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HERA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Longino &amp; Cardenal S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Longino &amp; Cardenal S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PININFARINA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PLC S.p.A.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>PROMOTICA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Predict S.p.A.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Racing Force S.p.A.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Somec S.p.A.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>The Italian Sea Group S.p.A.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>The Italian Sea Group S.p.A.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>eVISO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Half Year Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>rino petino S.p.A.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>